--- a/BOM DevBoard.xlsx
+++ b/BOM DevBoard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkuipers\Documents\KiCAD\TUP4041\TUP-devboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0A1765-FCC7-47B0-81F6-57ACA54E2D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B379AFE-45F7-4A47-ABC4-66F20BA31EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26445" yWindow="360" windowWidth="25080" windowHeight="16980" xr2:uid="{FCFF9A81-ACBB-439F-8FFF-0C5ABBE65E83}"/>
+    <workbookView xWindow="-30660" yWindow="-885" windowWidth="22725" windowHeight="16545" xr2:uid="{FCFF9A81-ACBB-439F-8FFF-0C5ABBE65E83}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>TULIP4041 DevBoard BOM</t>
   </si>
@@ -121,9 +121,6 @@
     <t>CD4050 input level shifter smd</t>
   </si>
   <si>
-    <t>Pico CPU with Flash</t>
-  </si>
-  <si>
     <t>Footprint</t>
   </si>
   <si>
@@ -151,18 +148,9 @@
     <t>296-14113-1-ND</t>
   </si>
   <si>
-    <t>RP Pico board (with headers!)</t>
-  </si>
-  <si>
-    <t>2648-SC0917-ND</t>
-  </si>
-  <si>
     <t>Raspberry Pi</t>
   </si>
   <si>
-    <t>SC0917</t>
-  </si>
-  <si>
     <t>Fujitsu</t>
   </si>
   <si>
@@ -274,9 +262,6 @@
     <t>Pinstrip male 6 pin</t>
   </si>
   <si>
-    <t>use version with headers, unless you plan to solder it. Soldering the Pico is NOT recommended</t>
-  </si>
-  <si>
     <t>max length 15-20 cm, optional, or build your own or use jumper cables</t>
   </si>
   <si>
@@ -314,6 +299,27 @@
   </si>
   <si>
     <t>FRAM 2 mbit SPI MB85RS2MTAPNF</t>
+  </si>
+  <si>
+    <t>SC1631</t>
+  </si>
+  <si>
+    <t>2648-SC1631CT-ND</t>
+  </si>
+  <si>
+    <t>RP Pico2 with RP2350</t>
+  </si>
+  <si>
+    <t>Pico2 RP2350 CPU with Flash</t>
+  </si>
+  <si>
+    <t>this version does not have headers</t>
+  </si>
+  <si>
+    <t>needed for Pico2 as this version does not have headers</t>
+  </si>
+  <si>
+    <t>Pico2 headers</t>
   </si>
 </sst>
 </file>
@@ -721,7 +727,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,7 +768,7 @@
         <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -770,7 +776,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -779,7 +785,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -787,16 +793,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G4" s="5">
         <v>2</v>
@@ -805,7 +811,7 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -813,7 +819,7 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -822,7 +828,7 @@
         <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -830,41 +836,41 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G6">
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G7">
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -872,30 +878,30 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -904,41 +910,41 @@
         <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G12">
         <v>6</v>
       </c>
       <c r="H12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -946,74 +952,74 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I15" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1021,16 +1027,16 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1039,7 +1045,7 @@
         <v>19</v>
       </c>
       <c r="I16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1047,16 +1053,16 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
         <v>28</v>
       </c>
-      <c r="D17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>29</v>
-      </c>
-      <c r="F17" t="s">
-        <v>30</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1065,7 +1071,7 @@
         <v>20</v>
       </c>
       <c r="I17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1073,16 +1079,16 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
         <v>28</v>
       </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s">
-        <v>29</v>
-      </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -1091,7 +1097,7 @@
         <v>22</v>
       </c>
       <c r="I18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J18" t="s">
         <v>21</v>
@@ -1099,33 +1105,50 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="I19" t="s">
-        <v>76</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1160,66 +1183,66 @@
         <v>9</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G24">
         <v>2</v>
       </c>
       <c r="H24" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
